--- a/data/trans_bre/POLIPATOLOGIA_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.95100637416455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16.38205074883211</v>
+        <v>16.38205074883212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8174217184105188</v>
@@ -649,7 +649,7 @@
         <v>1.289152423287694</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.78362083680713</v>
+        <v>0.7836208368071306</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.464149570286316</v>
+        <v>3.346893039981557</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.442082361292186</v>
+        <v>7.027364314783716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.40711489553623</v>
+        <v>8.700753303776143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.24895796072385</v>
+        <v>12.39247560331457</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3949124651414731</v>
+        <v>0.4238591175972281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6397880870345435</v>
+        <v>0.6302585742694289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7707164053293548</v>
+        <v>0.7829913224517907</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5183953050883554</v>
+        <v>0.5254171086643398</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.152645221794952</v>
+        <v>8.209288018079143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.3389093094197</v>
+        <v>13.11950883242308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.02796144322665</v>
+        <v>15.22551641935678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.2839302823438</v>
+        <v>20.57424399334277</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.309988869146966</v>
+        <v>1.357854734483259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.603122057125435</v>
+        <v>1.552825313600442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.883511226920129</v>
+        <v>1.922493196634598</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.100112902999448</v>
+        <v>1.128789906542449</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.061624496651986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.623662885542783</v>
+        <v>4.623662885542782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8981925685997479</v>
@@ -749,7 +749,7 @@
         <v>2.183927822717347</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7096207432445375</v>
+        <v>0.7096207432445373</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3389621862458559</v>
+        <v>0.3691384414960063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.475937815745969</v>
+        <v>1.410850720673955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.903555380111052</v>
+        <v>2.729241751923464</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.158871617412375</v>
+        <v>2.99691622075497</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.16234265557952</v>
+        <v>0.1505043505888577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7863865795480622</v>
+        <v>0.7213142540815913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.20896211080228</v>
+        <v>1.12840152300716</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4252023481825268</v>
+        <v>0.4090199414550126</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.454626135533279</v>
+        <v>2.449421793489947</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.71798290499814</v>
+        <v>3.754680290211525</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.377916987381198</v>
+        <v>5.345254706375854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.108079386318628</v>
+        <v>6.037866063110951</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.335662406989922</v>
+        <v>2.15750985577264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.399742613368498</v>
+        <v>3.351676754714649</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.621780649985511</v>
+        <v>3.533526537418154</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.073019673063795</v>
+        <v>1.032400568845873</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.158685453962703</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.438761518727377</v>
+        <v>4.438761518727376</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1721490278431294</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.245795282280582</v>
+        <v>-2.149548783122217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05247486830059287</v>
+        <v>-0.06676999021655164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.061135881971673</v>
+        <v>-0.7797280894424592</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.056384478081654</v>
+        <v>2.154539564214291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7152491455762977</v>
+        <v>-0.7050200648417795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1424374214465453</v>
+        <v>-0.2420651924370118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3744689349351091</v>
+        <v>-0.3318721678781739</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3435499579765985</v>
+        <v>0.3841035161129448</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.209173895462482</v>
+        <v>1.468197729690726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.400577852284746</v>
+        <v>4.312875136281869</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.044596751127893</v>
+        <v>3.3913158889114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.456865692340548</v>
+        <v>6.655747677393959</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9858299343450848</v>
+        <v>1.367565458166276</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>11.11155162702302</v>
+        <v>8.886617180692765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.829289451058718</v>
+        <v>3.010483702085796</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.039063085784372</v>
+        <v>2.076398262123371</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.262905668261196</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.000114800521581</v>
+        <v>8.000114800521583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9641593221157291</v>
@@ -949,7 +949,7 @@
         <v>1.770420586167188</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9536244523929477</v>
+        <v>0.953624452392948</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.226045848534534</v>
+        <v>2.229812890146393</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.823637542671193</v>
+        <v>4.941856703638335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.036802351679442</v>
+        <v>4.951083196133491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.645839733620148</v>
+        <v>6.614976572376261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5718901328684384</v>
+        <v>0.5605937206772432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.133082422640401</v>
+        <v>1.149673912334805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.29741981188912</v>
+        <v>1.211403150482499</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7432469845679509</v>
+        <v>0.7156816198308087</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.375695507797387</v>
+        <v>4.375020767160207</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.300750277090201</v>
+        <v>7.26935693748653</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.446912865925722</v>
+        <v>7.5308045011644</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.315531979970626</v>
+        <v>9.277397561000015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.491217087283548</v>
+        <v>1.473321049961859</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.258223029363712</v>
+        <v>2.175906574592257</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.469877589907794</v>
+        <v>2.411870213814016</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.213124777771959</v>
+        <v>1.202204648582095</v>
       </c>
     </row>
     <row r="16">
